--- a/app_core/Attendance File Format.xlsx
+++ b/app_core/Attendance File Format.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\django-boilerplate\app_core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BD4ED9-7630-49CF-9098-AC9C5265EE2C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77C40D1-27D7-4460-839C-62BCEEB4EE79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21375" windowHeight="8775" xr2:uid="{E5F6D9B6-24D2-49AA-A69C-0544BDF7AD3A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E5F6D9B6-24D2-49AA-A69C-0544BDF7AD3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="10">
   <si>
     <r>
       <rPr>
@@ -160,10 +161,10 @@
     <t>Daily</t>
   </si>
   <si>
-    <t>0000359</t>
+    <t>Lopez</t>
   </si>
   <si>
-    <t>Marsh</t>
+    <t>0000365</t>
   </si>
 </sst>
 </file>
@@ -173,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +186,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -591,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D2459C-350F-427D-9C13-8BA0FE552AE7}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,10 +641,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>43892</v>
@@ -657,10 +664,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
         <v>43893</v>
@@ -680,10 +687,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>43894</v>
@@ -703,10 +710,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3">
         <v>43895</v>
@@ -726,10 +733,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3">
         <v>43896</v>
@@ -747,8 +754,414 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43899</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E7" s="3">
+        <v>43899</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.71875</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43900</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E8" s="3">
+        <v>43900</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.71875</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43901</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E9" s="3">
+        <v>43901</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.71875</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43902</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E10" s="3">
+        <v>43902</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.71875</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>43903</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E11" s="3">
+        <v>43903</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.71875</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43906</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E12" s="3">
+        <v>43906</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.71875</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>43907</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E13" s="3">
+        <v>43907</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.71875</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43908</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E14" s="3">
+        <v>43908</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.71875</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>43909</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E15" s="3">
+        <v>43909</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.71875</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43910</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E16" s="3">
+        <v>43910</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.71875</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>43913</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E17" s="3">
+        <v>43913</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.71875</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43914</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E18" s="3">
+        <v>43914</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.71875</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>43915</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E19" s="3">
+        <v>43915</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.71875</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>43916</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E20" s="3">
+        <v>43916</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.71875</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>43917</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E21" s="3">
+        <v>43917</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0.71875</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3">
+        <v>43920</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E22" s="3">
+        <v>43920</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0.71875</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3">
+        <v>43921</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="E23" s="3">
+        <v>43921</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74D9726-6CF8-4D3A-929B-39D29C868ADC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>